--- a/src/main/resources/AttractingPlace.xlsx
+++ b/src/main/resources/AttractingPlace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelly\Documents\GitHub\2025-1-CSC4004-3-3-TtaRaGa\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4270883F-6D71-45FA-8907-FD0C9CC76932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609DC8C8-5B86-473E-9FED-F0882CA4528F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="15540" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24662,8 +24662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="F207" sqref="F207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -24679,10 +24679,10 @@
         <v>764</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>767</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>765</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>766</v>
